--- a/data/trans_dic/P28A_3_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P28A_3_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,7 +538,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido más tabaco respecto al último mes</t>
+          <t>Población que ha consumido más tabaco respecto al último mes (tasa de respuesta: 99,96%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -680,77 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>44,55%</t>
+          <t>17,16%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>26,54%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>7,63%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,16%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>22,67%</t>
+          <t>8,93%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>30,17%</t>
+          <t>11,29%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>32,71%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>23,66%</t>
+          <t>8,1%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>25,2%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>37,83%</t>
+          <t>14,37%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>29,17%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>16,93%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>18,23%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>23,71%</t>
+          <t>8,4%</t>
         </is>
       </c>
     </row>
@@ -763,77 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>33,67; 55,35</t>
+          <t>11,89; 23,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,73; 41,32</t>
+          <t>4,86; 14,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,87; 29,93</t>
+          <t>3,68; 13,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,19; 25,51</t>
+          <t>2,47; 10,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,66; 36,5</t>
+          <t>4,48; 15,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,21; 42,09</t>
+          <t>6,89; 16,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>19,14; 52,64</t>
+          <t>4,41; 13,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,96; 26,63</t>
+          <t>3,13; 10,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,67; 37,03</t>
+          <t>4,52; 13,47</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11,93; 40,0</t>
+          <t>4,0; 14,05</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>29,34; 46,24</t>
+          <t>10,94; 18,43</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>20,13; 40,81</t>
+          <t>5,56; 12,2</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>11,4; 24,81</t>
+          <t>4,27; 10,19</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>11,22; 26,54</t>
+          <t>4,07; 10,08</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>15,9; 35,18</t>
+          <t>5,12; 12,61</t>
         </is>
       </c>
     </row>
@@ -850,77 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>29,42%</t>
+          <t>15,38%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>34,82%</t>
+          <t>17,11%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,08%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>10,28%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>46,84%</t>
+          <t>13,84%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>25,49%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>18,36%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>15,69%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>23,42%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>35,38%</t>
+          <t>14,64%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>31,76%</t>
+          <t>12,35%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>16,42%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>11,09%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>5,78%</t>
         </is>
       </c>
     </row>
@@ -933,77 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,52; 40,44</t>
+          <t>10,98; 21,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,19; 51,42</t>
+          <t>10,04; 29,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,05; 24,58</t>
+          <t>3,54; 10,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,8; 16,45</t>
+          <t>1,57; 8,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,96; 21,64</t>
+          <t>1,69; 9,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,97; 59,56</t>
+          <t>9,91; 18,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,28; 38,52</t>
+          <t>3,98; 11,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,44; 28,9</t>
+          <t>3,59; 10,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,34; 24,51</t>
+          <t>2,69; 8,12</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,74; 39,6</t>
+          <t>3,86; 14,21</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>27,09; 44,1</t>
+          <t>11,3; 18,41</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>22,72; 44,5</t>
+          <t>8,12; 18,6</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>11,45; 22,89</t>
+          <t>4,36; 8,76</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>6,77; 16,56</t>
+          <t>2,82; 6,85</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>8,73; 25,54</t>
+          <t>3,26; 10,03</t>
         </is>
       </c>
     </row>
@@ -1020,77 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>31,43%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,07%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,92%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>45,88%</t>
+          <t>14,74%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>19,64%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>15,93%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>13,17%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>9,9%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>38,69%</t>
+          <t>12,54%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>15,13%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>12,09%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>11,09%</t>
+          <t>4,05%</t>
         </is>
       </c>
     </row>
@@ -1103,77 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>21,87; 41,8</t>
+          <t>6,99; 14,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,69; 22,34</t>
+          <t>2,95; 10,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,3; 15,39</t>
+          <t>1,99; 6,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,55; 22,14</t>
+          <t>2,32; 9,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,51; 19,83</t>
+          <t>2,68; 8,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>36,05; 56,29</t>
+          <t>11,03; 18,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,03; 29,51</t>
+          <t>3,18; 8,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,69; 22,82</t>
+          <t>4,23; 9,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,28; 20,14</t>
+          <t>2,79; 7,25</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,69; 17,87</t>
+          <t>1,53; 5,93</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>32,02; 46,38</t>
+          <t>10,05; 15,6</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,27; 22,38</t>
+          <t>3,62; 8,01</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>9,44; 17,22</t>
+          <t>3,78; 7,13</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>8,39; 18,25</t>
+          <t>3,05; 7,21</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>6,64; 16,3</t>
+          <t>2,51; 6,11</t>
         </is>
       </c>
     </row>
@@ -1190,77 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>27,99%</t>
+          <t>8,93%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>23,14%</t>
+          <t>7,77%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,36%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,19%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>34,59%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>26,21%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>16,54%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>25,21%</t>
+          <t>10,66%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>31,34%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>24,61%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>12,72%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>13,5%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>21,62%</t>
+          <t>8,86%</t>
         </is>
       </c>
     </row>
@@ -1273,77 +1274,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,97; 38,85</t>
+          <t>6,06; 12,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,49; 39,78</t>
+          <t>4,05; 15,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,58; 18,86</t>
+          <t>2,22; 7,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,29; 19,75</t>
+          <t>1,77; 6,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,14; 28,26</t>
+          <t>4,35; 11,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,26; 43,18</t>
+          <t>7,67; 13,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,63; 36,51</t>
+          <t>4,63; 10,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,5; 22,89</t>
+          <t>2,77; 6,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,29; 24,14</t>
+          <t>3,04; 7,58</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,12; 34,74</t>
+          <t>7,27; 15,21</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>24,66; 38,25</t>
+          <t>7,6; 12,08</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,46; 34,02</t>
+          <t>5,21; 11,82</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>8,55; 18,47</t>
+          <t>2,92; 6,58</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>9,05; 19,11</t>
+          <t>2,86; 6,23</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>16,07; 28,15</t>
+          <t>6,52; 11,96</t>
         </is>
       </c>
     </row>
@@ -1360,77 +1361,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>18,86%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>17,65%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>12,22%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>9,56%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>30,32%</t>
+          <t>9,24%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>21,54%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>14,41%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>14,1%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>24,82%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>24,57%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>19,61%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>13,18%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>17,74%</t>
+          <t>5,69%</t>
         </is>
       </c>
     </row>
@@ -1443,77 +1444,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,92; 29,79</t>
+          <t>3,37; 8,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,02; 37,56</t>
+          <t>2,17; 11,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,46; 20,76</t>
+          <t>2,33; 7,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,09</t>
+          <t>0,0; 1,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,51; 20,06</t>
+          <t>1,12; 6,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,26; 42,28</t>
+          <t>5,83; 14,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,86; 33,14</t>
+          <t>3,54; 9,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,24; 25,53</t>
+          <t>2,09; 7,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,39; 24,11</t>
+          <t>2,37; 8,13</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>16,11; 37,68</t>
+          <t>4,84; 12,45</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17,87; 32,77</t>
+          <t>5,39; 10,12</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>12,89; 31,43</t>
+          <t>3,6; 8,76</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>8,29; 20,1</t>
+          <t>2,63; 6,27</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>4,06; 13,25</t>
+          <t>1,36; 4,59</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>11,24; 25,32</t>
+          <t>3,83; 8,49</t>
         </is>
       </c>
     </row>
@@ -1530,12 +1531,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>16,61%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1545,62 +1546,62 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>13,08%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>0,59%</t>
         </is>
       </c>
     </row>
@@ -1613,77 +1614,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,3; 35,47</t>
+          <t>0,43; 4,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,53</t>
+          <t>0,0; 4,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,27</t>
+          <t>0,0; 2,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,5</t>
+          <t>0,0; 3,35</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,56; 31,11</t>
+          <t>0,29; 2,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,23</t>
+          <t>0,0; 2,39</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,98</t>
+          <t>0,0; 2,37</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,45</t>
+          <t>0,0; 2,26</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,4</t>
+          <t>0,0; 3,49</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>6,39; 27,97</t>
+          <t>0,51; 2,47</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,97; 20,0</t>
+          <t>0,21; 2,03</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,9</t>
+          <t>0,0; 1,52</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,7</t>
+          <t>0,14; 1,86</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,0</t>
+          <t>0,0; 2,36</t>
         </is>
       </c>
     </row>
@@ -1700,77 +1701,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>30,13%</t>
+          <t>9,84%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>21,89%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>36,59%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>23,58%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>14,8%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>14,79%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>20,72%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>33,11%</t>
+          <t>9,79%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>22,59%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>11,56%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>16,7%</t>
+          <t>5,4%</t>
         </is>
       </c>
     </row>
@@ -1783,77 +1784,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>25,44; 34,94</t>
+          <t>8,32; 11,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,01; 28,79</t>
+          <t>5,71; 10,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,16; 15,52</t>
+          <t>3,39; 5,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,27; 12,55</t>
+          <t>2,24; 4,54</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,31; 17,47</t>
+          <t>3,58; 6,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>32,25; 41,11</t>
+          <t>8,28; 11,22</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,99; 28,51</t>
+          <t>4,37; 6,77</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,58; 17,98</t>
+          <t>3,61; 5,62</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>12,04; 18,26</t>
+          <t>3,52; 5,62</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>16,33; 24,93</t>
+          <t>4,7; 7,64</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>29,71; 36,47</t>
+          <t>8,63; 10,88</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>19,09; 26,86</t>
+          <t>5,36; 7,75</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>11,12; 15,53</t>
+          <t>3,78; 5,36</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>9,47; 13,9</t>
+          <t>3,13; 4,78</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>14,09; 19,75</t>
+          <t>4,51; 6,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1873,4 +1881,1969 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido más tabaco respecto al último mes (tasa de respuesta: 99,96%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>88009</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>43311</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>40006</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>26236</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3759</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>52260</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>37603</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>29765</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>41638</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2914</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>140269</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>80914</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>69771</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>67874</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>6673</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>60969; 118095</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>24414; 73153</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>19309; 68609</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>12603; 53763</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1887; 6396</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>31894; 76039</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>20535; 62813</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>16104; 53250</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>23245; 69245</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1494; 5254</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>106792; 179818</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>53810; 118135</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>44357; 105868</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>41679; 103249</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>4067; 10020</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>86627</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>98075</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>37362</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>23322</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2143</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>71831</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>36145</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>31284</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>25740</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3439</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>158458</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>134219</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>68646</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>49061</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>5582</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>61877; 118939</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>57535; 169979</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>20045; 59100</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>9314; 47658</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>837; 4491</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>51422; 97842</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>20428; 59517</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>18231; 51585</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>13903; 42034</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1821; 6708</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>122320; 199237</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>88229; 202142</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>46753; 94026</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>31296; 76152</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>3147; 9693</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>69460</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>37207</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>25720</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>31085</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2929</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>102326</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>38851</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>47569</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>31925</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1688</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>171786</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>76059</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>73290</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>63010</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>4616</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>47219; 97539</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>20242; 71266</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>13537; 43237</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>15735; 65441</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1607; 5167</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>76546; 131238</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>22550; 62544</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>30373; 69816</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>19917; 51775</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>824; 3200</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>137704; 213744</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>50615; 111832</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>52879; 99741</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>42420; 100299</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>2855; 6957</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>56989</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>50299</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>29073</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>22939</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>4224</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>72542</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>50426</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>30251</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>32954</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>5586</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>129531</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>100726</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>59325</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>55893</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>9811</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>38680; 82901</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>26211; 97721</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>14366; 49246</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>11270; 42906</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2535; 6849</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>53921; 96993</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>31772; 73075</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>18623; 46243</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>20037; 49867</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>3811; 7976</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>101930; 162061</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>69421; 157598</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>38559; 86812</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>36985; 80675</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>7216; 13240</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>29096</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>23883</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>21398</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>3125</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1327</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>46426</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>30901</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>20763</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>23326</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>3982</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>75522</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>54784</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>42161</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>26452</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>5310</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>17227; 45313</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>10758; 59198</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>11706; 37943</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 9535</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>498; 2955</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>29278; 72247</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>18021; 50332</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>10537; 39207</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>12234; 41868</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>2360; 6072</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>54690; 102622</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>36109; 87973</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>26479; 63018</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>13710; 46267</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>3573; 7919</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>9164</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>6110</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>3096</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>6391</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2727</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>5387</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>4410</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>15555</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>8837</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>5387</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>7506</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2338; 22313</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 23427</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 12723</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1569</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>2094; 19121</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 17143</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 16447</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 15664</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2223</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>6525; 31448</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>2617; 25691</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>0; 18666</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>1733; 22680</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2614</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>294.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>339345</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>258885</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>153560</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>109803</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>14629</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>351776</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>196653</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>165020</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>159992</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>18015</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>691121</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>455538</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>318581</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>269795</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>32644</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>286891; 399739</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>196914; 348755</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>116716; 205041</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>77033; 155953</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>10791; 19527</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>298980; 405252</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>157372; 243722</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>130483; 203207</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>127216; 202996</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>14272; 23185</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>609248; 768233</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>377680; 546818</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>266620; 378761</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>220505; 336726</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>27284; 39287</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>